--- a/Data/Event.xlsx
+++ b/Data/Event.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="594">
   <si>
     <t>Discipline</t>
   </si>
@@ -843,9 +843,6 @@
   </si>
   <si>
     <t>- 66.6Kg (Lightweight)</t>
-  </si>
-  <si>
-    <t>#ERROR!</t>
   </si>
   <si>
     <t>73 - 93Kg (Light-Heavyweight)</t>
@@ -1856,12 +1853,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2179,10 +2173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C974"/>
+  <dimension ref="A1:C967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
-      <selection activeCell="G691" sqref="G691"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2273,10 +2267,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2284,10 +2278,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>181</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2295,7 +2289,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>182</v>
+        <v>304</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -2306,7 +2300,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -2317,7 +2311,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -2328,7 +2322,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>306</v>
+        <v>504</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -2339,7 +2333,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>307</v>
+        <v>452</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -2350,7 +2344,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>505</v>
+        <v>307</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -2361,10 +2355,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>505</v>
+        <v>308</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2372,7 +2366,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>453</v>
+        <v>309</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2383,10 +2377,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>453</v>
+        <v>310</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2394,7 +2388,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -2405,7 +2399,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -2416,7 +2410,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>310</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -2427,7 +2421,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>311</v>
+        <v>132</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -2438,7 +2432,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>312</v>
+        <v>505</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -2449,7 +2443,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>313</v>
+        <v>183</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -2460,10 +2454,10 @@
         <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2471,7 +2465,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -2482,10 +2476,10 @@
         <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2493,10 +2487,10 @@
         <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>506</v>
+        <v>181</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2504,7 +2498,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
@@ -2515,10 +2509,10 @@
         <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>183</v>
+        <v>452</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2526,7 +2520,7 @@
         <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="C31" t="s">
         <v>21</v>
@@ -2537,10 +2531,10 @@
         <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>184</v>
+        <v>505</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2548,10 +2542,10 @@
         <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2559,10 +2553,10 @@
         <v>7</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>422</v>
+        <v>205</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2570,7 +2564,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -2581,7 +2575,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -2592,7 +2586,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>207</v>
+        <v>379</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -2603,7 +2597,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>380</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -2617,7 +2611,7 @@
         <v>380</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2625,7 +2619,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -2636,7 +2630,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>381</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -2647,7 +2641,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -2658,10 +2652,10 @@
         <v>7</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2669,7 +2663,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -2680,7 +2674,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>103</v>
+        <v>351</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -2691,7 +2685,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -2702,7 +2696,7 @@
         <v>7</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>105</v>
+        <v>288</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -2713,7 +2707,7 @@
         <v>7</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>352</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -2724,7 +2718,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>208</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -2735,10 +2729,10 @@
         <v>7</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>208</v>
+        <v>289</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2746,7 +2740,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>289</v>
+        <v>381</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -2757,7 +2751,7 @@
         <v>7</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -2768,10 +2762,10 @@
         <v>7</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>107</v>
+        <v>421</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2779,7 +2773,7 @@
         <v>7</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>423</v>
+        <v>379</v>
       </c>
       <c r="C54" t="s">
         <v>21</v>
@@ -2790,10 +2784,10 @@
         <v>7</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>290</v>
+        <v>154</v>
       </c>
       <c r="C55" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2801,10 +2795,10 @@
         <v>7</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>382</v>
+        <v>208</v>
       </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2812,7 +2806,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C57" t="s">
         <v>21</v>
@@ -2823,10 +2817,10 @@
         <v>7</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>108</v>
+        <v>423</v>
       </c>
       <c r="C58" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2845,7 +2839,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -2859,7 +2853,7 @@
         <v>277</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2867,7 +2861,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
@@ -2878,10 +2872,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2889,7 +2883,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
@@ -2900,10 +2894,10 @@
         <v>3</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2911,10 +2905,10 @@
         <v>3</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>454</v>
+        <v>133</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2922,7 +2916,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
@@ -2933,7 +2927,7 @@
         <v>3</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>81</v>
+        <v>431</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
@@ -2944,7 +2938,7 @@
         <v>3</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -2955,10 +2949,10 @@
         <v>3</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2966,7 +2960,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>133</v>
+        <v>313</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -2977,10 +2971,10 @@
         <v>3</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2988,7 +2982,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>134</v>
+        <v>227</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -2999,10 +2993,10 @@
         <v>3</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>541</v>
+        <v>228</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3010,7 +3004,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>432</v>
+        <v>136</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -3021,10 +3015,10 @@
         <v>3</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>490</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3032,7 +3026,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -3043,10 +3037,10 @@
         <v>3</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3065,7 +3059,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -3076,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C81" t="s">
         <v>2</v>
@@ -3087,7 +3081,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
@@ -3098,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>228</v>
+        <v>138</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
@@ -3109,7 +3103,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>136</v>
+        <v>375</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -3120,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
@@ -3131,10 +3125,10 @@
         <v>3</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="C86" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3142,7 +3136,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -3153,10 +3147,10 @@
         <v>3</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>137</v>
+        <v>280</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3164,7 +3158,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>185</v>
+        <v>281</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
@@ -3175,7 +3169,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>280</v>
+        <v>187</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
@@ -3186,10 +3180,10 @@
         <v>3</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>280</v>
+        <v>85</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3197,7 +3191,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -3208,10 +3202,10 @@
         <v>3</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>229</v>
+        <v>282</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3219,7 +3213,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -3230,7 +3224,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -3241,10 +3235,10 @@
         <v>3</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>241</v>
+        <v>141</v>
       </c>
       <c r="C96" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3252,7 +3246,7 @@
         <v>3</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -3263,7 +3257,7 @@
         <v>3</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>376</v>
+        <v>233</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -3274,7 +3268,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>186</v>
+        <v>283</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
@@ -3285,7 +3279,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -3296,7 +3290,7 @@
         <v>3</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
@@ -3307,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C102" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3318,10 +3312,10 @@
         <v>3</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>377</v>
+        <v>284</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3329,7 +3323,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>281</v>
+        <v>89</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
@@ -3340,7 +3334,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>282</v>
+        <v>90</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
@@ -3351,7 +3345,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>187</v>
+        <v>285</v>
       </c>
       <c r="C106" t="s">
         <v>2</v>
@@ -3362,7 +3356,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="C107" t="s">
         <v>2</v>
@@ -3373,10 +3367,10 @@
         <v>3</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C108" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3384,7 +3378,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="C109" t="s">
         <v>2</v>
@@ -3395,10 +3389,10 @@
         <v>3</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C110" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3406,10 +3400,10 @@
         <v>3</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>140</v>
+        <v>277</v>
       </c>
       <c r="C111" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3417,7 +3411,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="C112" t="s">
         <v>21</v>
@@ -3428,7 +3422,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="C113" t="s">
         <v>21</v>
@@ -3439,10 +3433,10 @@
         <v>3</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C114" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3450,7 +3444,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="C115" t="s">
         <v>21</v>
@@ -3461,10 +3455,10 @@
         <v>3</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>141</v>
+        <v>540</v>
       </c>
       <c r="C116" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3472,10 +3466,10 @@
         <v>3</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>232</v>
+        <v>489</v>
       </c>
       <c r="C117" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3483,7 +3477,7 @@
         <v>3</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="C118" t="s">
         <v>21</v>
@@ -3494,10 +3488,10 @@
         <v>3</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="C119" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3505,10 +3499,10 @@
         <v>3</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>284</v>
+        <v>137</v>
       </c>
       <c r="C120" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3516,10 +3510,10 @@
         <v>3</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>87</v>
+        <v>279</v>
       </c>
       <c r="C121" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3527,7 +3521,7 @@
         <v>3</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>87</v>
+        <v>229</v>
       </c>
       <c r="C122" t="s">
         <v>21</v>
@@ -3538,10 +3532,10 @@
         <v>3</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>142</v>
+        <v>241</v>
       </c>
       <c r="C123" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3549,10 +3543,10 @@
         <v>3</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C124" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3560,7 +3554,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>88</v>
+        <v>376</v>
       </c>
       <c r="C125" t="s">
         <v>21</v>
@@ -3571,10 +3565,10 @@
         <v>3</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>285</v>
+        <v>85</v>
       </c>
       <c r="C126" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3582,7 +3576,7 @@
         <v>3</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>285</v>
+        <v>140</v>
       </c>
       <c r="C127" t="s">
         <v>21</v>
@@ -3593,10 +3587,10 @@
         <v>3</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>89</v>
+        <v>490</v>
       </c>
       <c r="C128" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3604,7 +3598,7 @@
         <v>3</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C129" t="s">
         <v>21</v>
@@ -3615,10 +3609,10 @@
         <v>3</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>90</v>
+        <v>232</v>
       </c>
       <c r="C130" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3626,7 +3620,7 @@
         <v>3</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C131" t="s">
         <v>21</v>
@@ -3637,10 +3631,10 @@
         <v>3</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>286</v>
+        <v>88</v>
       </c>
       <c r="C132" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3648,10 +3642,10 @@
         <v>3</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>188</v>
+        <v>284</v>
       </c>
       <c r="C133" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3659,10 +3653,10 @@
         <v>3</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C134" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3670,7 +3664,7 @@
         <v>3</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C135" t="s">
         <v>21</v>
@@ -3681,10 +3675,10 @@
         <v>3</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="C136" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3703,10 +3697,10 @@
         <v>55</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C138" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3717,7 +3711,7 @@
         <v>114</v>
       </c>
       <c r="C139" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3728,7 +3722,7 @@
         <v>115</v>
       </c>
       <c r="C140" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3736,10 +3730,10 @@
         <v>55</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C141" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -3791,7 +3785,7 @@
         <v>59</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
@@ -3802,7 +3796,7 @@
         <v>59</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C147" t="s">
         <v>21</v>
@@ -3846,7 +3840,7 @@
         <v>28</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C151" t="s">
         <v>2</v>
@@ -3857,7 +3851,7 @@
         <v>28</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C152" t="s">
         <v>2</v>
@@ -3868,7 +3862,7 @@
         <v>28</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C153" t="s">
         <v>2</v>
@@ -3901,7 +3895,7 @@
         <v>28</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C156" t="s">
         <v>2</v>
@@ -3912,7 +3906,7 @@
         <v>28</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C157" t="s">
         <v>2</v>
@@ -3923,7 +3917,7 @@
         <v>28</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C158" t="s">
         <v>2</v>
@@ -3934,7 +3928,7 @@
         <v>28</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
@@ -3945,7 +3939,7 @@
         <v>28</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
@@ -3978,7 +3972,7 @@
         <v>28</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C163" t="s">
         <v>2</v>
@@ -3989,7 +3983,7 @@
         <v>28</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C164" t="s">
         <v>2</v>
@@ -4000,7 +3994,7 @@
         <v>28</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C165" t="s">
         <v>2</v>
@@ -4011,7 +4005,7 @@
         <v>28</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C166" t="s">
         <v>2</v>
@@ -4033,7 +4027,7 @@
         <v>28</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C168" t="s">
         <v>2</v>
@@ -4044,7 +4038,7 @@
         <v>28</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C169" t="s">
         <v>2</v>
@@ -4066,7 +4060,7 @@
         <v>28</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C171" t="s">
         <v>2</v>
@@ -4077,7 +4071,7 @@
         <v>28</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
@@ -4088,7 +4082,7 @@
         <v>28</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C173" t="s">
         <v>2</v>
@@ -4110,7 +4104,7 @@
         <v>28</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C175" t="s">
         <v>2</v>
@@ -4121,7 +4115,7 @@
         <v>28</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C176" t="s">
         <v>2</v>
@@ -4132,7 +4126,7 @@
         <v>28</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C177" t="s">
         <v>2</v>
@@ -4154,7 +4148,7 @@
         <v>28</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C179" t="s">
         <v>2</v>
@@ -4176,7 +4170,7 @@
         <v>28</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C181" t="s">
         <v>2</v>
@@ -4187,7 +4181,7 @@
         <v>28</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C182" t="s">
         <v>2</v>
@@ -4198,7 +4192,7 @@
         <v>28</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C183" t="s">
         <v>2</v>
@@ -4209,7 +4203,7 @@
         <v>28</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C184" t="s">
         <v>2</v>
@@ -4220,7 +4214,7 @@
         <v>28</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C185" t="s">
         <v>2</v>
@@ -4231,7 +4225,7 @@
         <v>28</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C186" t="s">
         <v>2</v>
@@ -4242,7 +4236,7 @@
         <v>28</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C187" t="s">
         <v>2</v>
@@ -4253,7 +4247,7 @@
         <v>28</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C188" t="s">
         <v>2</v>
@@ -4264,7 +4258,7 @@
         <v>28</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C189" t="s">
         <v>2</v>
@@ -4275,7 +4269,7 @@
         <v>43</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C190" t="s">
         <v>2</v>
@@ -4286,7 +4280,7 @@
         <v>43</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C191" t="s">
         <v>2</v>
@@ -4297,7 +4291,7 @@
         <v>43</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C192" t="s">
         <v>2</v>
@@ -4308,7 +4302,7 @@
         <v>43</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C193" t="s">
         <v>2</v>
@@ -4319,7 +4313,7 @@
         <v>43</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C194" t="s">
         <v>2</v>
@@ -4330,7 +4324,7 @@
         <v>43</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C195" t="s">
         <v>2</v>
@@ -4341,7 +4335,7 @@
         <v>43</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C196" t="s">
         <v>2</v>
@@ -4352,7 +4346,7 @@
         <v>43</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C197" t="s">
         <v>2</v>
@@ -4363,7 +4357,7 @@
         <v>43</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C198" t="s">
         <v>2</v>
@@ -4374,7 +4368,7 @@
         <v>43</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C199" t="s">
         <v>2</v>
@@ -4385,7 +4379,7 @@
         <v>43</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C200" t="s">
         <v>2</v>
@@ -4396,10 +4390,10 @@
         <v>43</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C201" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4407,7 +4401,7 @@
         <v>43</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C202" t="s">
         <v>2</v>
@@ -4429,7 +4423,7 @@
         <v>43</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="C204" t="s">
         <v>2</v>
@@ -4440,10 +4434,10 @@
         <v>43</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C205" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4451,10 +4445,10 @@
         <v>43</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="C206" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4462,10 +4456,10 @@
         <v>43</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C207" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4473,7 +4467,7 @@
         <v>43</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C208" t="s">
         <v>21</v>
@@ -4484,7 +4478,7 @@
         <v>48</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C209" t="s">
         <v>2</v>
@@ -4495,7 +4489,7 @@
         <v>48</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C210" t="s">
         <v>2</v>
@@ -4506,7 +4500,7 @@
         <v>48</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C211" t="s">
         <v>2</v>
@@ -4517,7 +4511,7 @@
         <v>48</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C212" t="s">
         <v>21</v>
@@ -4583,10 +4577,10 @@
         <v>4</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>92</v>
+        <v>286</v>
       </c>
       <c r="C218" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4605,7 +4599,7 @@
         <v>4</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>287</v>
+        <v>92</v>
       </c>
       <c r="C220" t="s">
         <v>21</v>
@@ -4616,10 +4610,10 @@
         <v>4</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C221" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4715,7 +4709,7 @@
         <v>5</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C230" t="s">
         <v>2</v>
@@ -4814,10 +4808,10 @@
         <v>5</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>542</v>
+        <v>321</v>
       </c>
       <c r="C239" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4825,7 +4819,7 @@
         <v>5</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="C240" t="s">
         <v>2</v>
@@ -4836,7 +4830,7 @@
         <v>5</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C241" t="s">
         <v>2</v>
@@ -4847,10 +4841,10 @@
         <v>5</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C242" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4858,7 +4852,7 @@
         <v>5</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C243" t="s">
         <v>2</v>
@@ -4869,7 +4863,7 @@
         <v>5</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>61</v>
+        <v>242</v>
       </c>
       <c r="C244" t="s">
         <v>2</v>
@@ -4880,7 +4874,7 @@
         <v>5</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C245" t="s">
         <v>2</v>
@@ -4891,7 +4885,7 @@
         <v>5</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>242</v>
+        <v>97</v>
       </c>
       <c r="C246" t="s">
         <v>2</v>
@@ -4902,7 +4896,7 @@
         <v>5</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>52</v>
+        <v>322</v>
       </c>
       <c r="C247" t="s">
         <v>2</v>
@@ -4913,10 +4907,10 @@
         <v>5</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C248" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4924,7 +4918,7 @@
         <v>5</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="C249" t="s">
         <v>21</v>
@@ -4935,10 +4929,10 @@
         <v>5</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="C250" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4946,10 +4940,10 @@
         <v>5</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>323</v>
+        <v>52</v>
       </c>
       <c r="C251" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4957,10 +4951,10 @@
         <v>5</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>67</v>
+        <v>499</v>
       </c>
       <c r="C252" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4979,10 +4973,10 @@
         <v>27</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="C254" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4990,7 +4984,7 @@
         <v>27</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="C255" t="s">
         <v>2</v>
@@ -5001,10 +4995,10 @@
         <v>27</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="C256" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5012,7 +5006,7 @@
         <v>27</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>275</v>
+        <v>538</v>
       </c>
       <c r="C257" t="s">
         <v>2</v>
@@ -5023,7 +5017,7 @@
         <v>27</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>173</v>
+        <v>539</v>
       </c>
       <c r="C258" t="s">
         <v>2</v>
@@ -5034,10 +5028,10 @@
         <v>27</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>539</v>
+        <v>172</v>
       </c>
       <c r="C259" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5045,7 +5039,7 @@
         <v>27</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>539</v>
+        <v>219</v>
       </c>
       <c r="C260" t="s">
         <v>21</v>
@@ -5056,10 +5050,10 @@
         <v>27</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C261" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5067,7 +5061,7 @@
         <v>27</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C262" t="s">
         <v>21</v>
@@ -5133,10 +5127,10 @@
         <v>6</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>150</v>
+        <v>243</v>
       </c>
       <c r="C268" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5144,7 +5138,7 @@
         <v>6</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="C269" t="s">
         <v>2</v>
@@ -5155,10 +5149,10 @@
         <v>6</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="C270" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5166,7 +5160,7 @@
         <v>6</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="C271" t="s">
         <v>2</v>
@@ -5177,7 +5171,7 @@
         <v>6</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="C272" t="s">
         <v>2</v>
@@ -5188,7 +5182,7 @@
         <v>6</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C273" t="s">
         <v>2</v>
@@ -5199,10 +5193,10 @@
         <v>6</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C274" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5210,7 +5204,7 @@
         <v>6</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="C275" t="s">
         <v>2</v>
@@ -5221,10 +5215,10 @@
         <v>6</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="C276" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5232,7 +5226,7 @@
         <v>6</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="C277" t="s">
         <v>2</v>
@@ -5243,10 +5237,10 @@
         <v>6</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C278" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5254,7 +5248,7 @@
         <v>6</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>100</v>
+        <v>243</v>
       </c>
       <c r="C279" t="s">
         <v>21</v>
@@ -5265,10 +5259,10 @@
         <v>6</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>244</v>
+        <v>98</v>
       </c>
       <c r="C280" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5276,7 +5270,7 @@
         <v>6</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="C281" t="s">
         <v>21</v>
@@ -5287,10 +5281,10 @@
         <v>6</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="C282" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5298,10 +5292,10 @@
         <v>6</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="C283" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5320,10 +5314,10 @@
         <v>35</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>66</v>
+        <v>262</v>
       </c>
       <c r="C285" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5331,10 +5325,10 @@
         <v>35</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>261</v>
+        <v>66</v>
       </c>
       <c r="C286" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5342,10 +5336,10 @@
         <v>35</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C287" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5386,10 +5380,10 @@
         <v>20</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="C291" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5397,10 +5391,10 @@
         <v>20</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>204</v>
+        <v>66</v>
       </c>
       <c r="C292" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5474,10 +5468,10 @@
         <v>46</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>581</v>
+        <v>479</v>
       </c>
       <c r="C299" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5485,10 +5479,10 @@
         <v>46</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>507</v>
+        <v>457</v>
       </c>
       <c r="C300" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5496,7 +5490,7 @@
         <v>46</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>480</v>
+        <v>439</v>
       </c>
       <c r="C301" t="s">
         <v>2</v>
@@ -5507,7 +5501,7 @@
         <v>46</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="C302" t="s">
         <v>2</v>
@@ -5518,7 +5512,7 @@
         <v>46</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>440</v>
+        <v>517</v>
       </c>
       <c r="C303" t="s">
         <v>2</v>
@@ -5529,10 +5523,10 @@
         <v>46</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>508</v>
+        <v>458</v>
       </c>
       <c r="C304" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5540,10 +5534,10 @@
         <v>46</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="C305" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5551,10 +5545,10 @@
         <v>46</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="C306" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5562,10 +5556,10 @@
         <v>46</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>510</v>
+        <v>440</v>
       </c>
       <c r="C307" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5573,10 +5567,10 @@
         <v>46</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>544</v>
+        <v>459</v>
       </c>
       <c r="C308" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5584,7 +5578,7 @@
         <v>46</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C309" t="s">
         <v>2</v>
@@ -5595,7 +5589,7 @@
         <v>46</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C310" t="s">
         <v>2</v>
@@ -5606,10 +5600,10 @@
         <v>46</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>511</v>
+        <v>483</v>
       </c>
       <c r="C311" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5617,7 +5611,7 @@
         <v>46</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C312" t="s">
         <v>2</v>
@@ -5628,10 +5622,10 @@
         <v>46</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="C313" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5639,7 +5633,7 @@
         <v>46</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C314" t="s">
         <v>2</v>
@@ -5650,10 +5644,10 @@
         <v>46</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="C315" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5661,7 +5655,7 @@
         <v>46</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="C316" t="s">
         <v>2</v>
@@ -5672,10 +5666,10 @@
         <v>46</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>441</v>
+        <v>580</v>
       </c>
       <c r="C317" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5683,7 +5677,7 @@
         <v>46</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>546</v>
+        <v>506</v>
       </c>
       <c r="C318" t="s">
         <v>21</v>
@@ -5694,10 +5688,10 @@
         <v>46</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>460</v>
+        <v>507</v>
       </c>
       <c r="C319" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5705,10 +5699,10 @@
         <v>46</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="C320" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5716,10 +5710,10 @@
         <v>46</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="C321" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5727,10 +5721,10 @@
         <v>46</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="C322" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5738,10 +5732,10 @@
         <v>46</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>461</v>
+        <v>543</v>
       </c>
       <c r="C323" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5749,10 +5743,10 @@
         <v>46</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C324" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5760,10 +5754,10 @@
         <v>46</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="C325" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5771,10 +5765,10 @@
         <v>46</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="C326" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5782,10 +5776,10 @@
         <v>46</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>442</v>
+        <v>545</v>
       </c>
       <c r="C327" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5848,7 +5842,7 @@
         <v>39</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C333" t="s">
         <v>2</v>
@@ -5859,10 +5853,10 @@
         <v>39</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>291</v>
+        <v>208</v>
       </c>
       <c r="C334" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5870,10 +5864,10 @@
         <v>39</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>208</v>
+        <v>290</v>
       </c>
       <c r="C335" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5881,7 +5875,7 @@
         <v>57</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C336" t="s">
         <v>2</v>
@@ -5892,7 +5886,7 @@
         <v>57</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C337" t="s">
         <v>21</v>
@@ -5936,7 +5930,7 @@
         <v>53</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C341" t="s">
         <v>21</v>
@@ -5969,7 +5963,7 @@
         <v>23</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C344" t="s">
         <v>2</v>
@@ -5980,10 +5974,10 @@
         <v>23</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>513</v>
+        <v>209</v>
       </c>
       <c r="C345" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -5991,7 +5985,7 @@
         <v>23</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C346" t="s">
         <v>2</v>
@@ -6002,7 +5996,7 @@
         <v>23</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="C347" t="s">
         <v>2</v>
@@ -6013,10 +6007,10 @@
         <v>23</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C348" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6024,7 +6018,7 @@
         <v>23</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C349" t="s">
         <v>2</v>
@@ -6035,10 +6029,10 @@
         <v>23</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>155</v>
+        <v>522</v>
       </c>
       <c r="C350" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6046,7 +6040,7 @@
         <v>23</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>211</v>
+        <v>523</v>
       </c>
       <c r="C351" t="s">
         <v>2</v>
@@ -6057,7 +6051,7 @@
         <v>23</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C352" t="s">
         <v>2</v>
@@ -6068,10 +6062,10 @@
         <v>23</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>156</v>
+        <v>478</v>
       </c>
       <c r="C353" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6079,7 +6073,7 @@
         <v>23</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>523</v>
+        <v>158</v>
       </c>
       <c r="C354" t="s">
         <v>2</v>
@@ -6090,10 +6084,10 @@
         <v>23</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="C355" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6101,7 +6095,7 @@
         <v>23</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>524</v>
+        <v>210</v>
       </c>
       <c r="C356" t="s">
         <v>21</v>
@@ -6112,7 +6106,7 @@
         <v>23</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>477</v>
+        <v>155</v>
       </c>
       <c r="C357" t="s">
         <v>21</v>
@@ -6123,10 +6117,10 @@
         <v>23</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C358" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6134,7 +6128,7 @@
         <v>23</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>478</v>
+        <v>523</v>
       </c>
       <c r="C359" t="s">
         <v>21</v>
@@ -6145,10 +6139,10 @@
         <v>23</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C360" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6156,7 +6150,7 @@
         <v>23</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C361" t="s">
         <v>21</v>
@@ -6167,10 +6161,10 @@
         <v>23</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>158</v>
+        <v>478</v>
       </c>
       <c r="C362" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6200,10 +6194,10 @@
         <v>25</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="C365" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6211,10 +6205,10 @@
         <v>25</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>160</v>
+        <v>335</v>
       </c>
       <c r="C366" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6222,10 +6216,10 @@
         <v>25</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="C367" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6233,10 +6227,10 @@
         <v>25</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>326</v>
+        <v>500</v>
       </c>
       <c r="C368" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6244,10 +6238,10 @@
         <v>25</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>327</v>
+        <v>513</v>
       </c>
       <c r="C369" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6255,10 +6249,10 @@
         <v>25</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>328</v>
+        <v>524</v>
       </c>
       <c r="C370" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6266,10 +6260,10 @@
         <v>25</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>370</v>
+        <v>493</v>
       </c>
       <c r="C371" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6277,10 +6271,10 @@
         <v>25</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>245</v>
+        <v>72</v>
       </c>
       <c r="C372" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6288,10 +6282,10 @@
         <v>25</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>329</v>
+        <v>593</v>
       </c>
       <c r="C373" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6299,10 +6293,10 @@
         <v>25</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>330</v>
+        <v>425</v>
       </c>
       <c r="C374" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6310,10 +6304,10 @@
         <v>25</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>331</v>
+        <v>68</v>
       </c>
       <c r="C375" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6321,10 +6315,10 @@
         <v>25</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="C376" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6332,10 +6326,10 @@
         <v>25</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>161</v>
+        <v>513</v>
       </c>
       <c r="C377" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6343,10 +6337,10 @@
         <v>25</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>333</v>
+        <v>524</v>
       </c>
       <c r="C378" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6354,10 +6348,10 @@
         <v>25</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C379" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6365,7 +6359,7 @@
         <v>25</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>49</v>
+        <v>593</v>
       </c>
       <c r="C380" t="s">
         <v>21</v>
@@ -6376,10 +6370,10 @@
         <v>25</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>547</v>
+        <v>514</v>
       </c>
       <c r="C381" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6387,10 +6381,10 @@
         <v>25</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>425</v>
+        <v>69</v>
       </c>
       <c r="C382" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6398,7 +6392,7 @@
         <v>25</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>334</v>
+        <v>159</v>
       </c>
       <c r="C383" t="s">
         <v>18</v>
@@ -6409,7 +6403,7 @@
         <v>25</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
       <c r="C384" t="s">
         <v>18</v>
@@ -6420,7 +6414,7 @@
         <v>25</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="C385" t="s">
         <v>18</v>
@@ -6431,10 +6425,10 @@
         <v>25</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C386" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6442,7 +6436,7 @@
         <v>25</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>247</v>
+        <v>326</v>
       </c>
       <c r="C387" t="s">
         <v>18</v>
@@ -6453,7 +6447,7 @@
         <v>25</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="C388" t="s">
         <v>18</v>
@@ -6464,7 +6458,7 @@
         <v>25</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="C389" t="s">
         <v>18</v>
@@ -6475,10 +6469,10 @@
         <v>25</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>338</v>
+        <v>245</v>
       </c>
       <c r="C390" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6486,10 +6480,10 @@
         <v>25</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>501</v>
+        <v>328</v>
       </c>
       <c r="C391" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6497,10 +6491,10 @@
         <v>25</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>514</v>
+        <v>329</v>
       </c>
       <c r="C392" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6508,10 +6502,10 @@
         <v>25</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>514</v>
+        <v>330</v>
       </c>
       <c r="C393" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6519,10 +6513,10 @@
         <v>25</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>525</v>
+        <v>331</v>
       </c>
       <c r="C394" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6530,10 +6524,10 @@
         <v>25</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>525</v>
+        <v>161</v>
       </c>
       <c r="C395" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6541,10 +6535,10 @@
         <v>25</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>494</v>
+        <v>332</v>
       </c>
       <c r="C396" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6552,7 +6546,7 @@
         <v>25</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>402</v>
+        <v>546</v>
       </c>
       <c r="C397" t="s">
         <v>18</v>
@@ -6563,7 +6557,7 @@
         <v>25</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>71</v>
+        <v>424</v>
       </c>
       <c r="C398" t="s">
         <v>18</v>
@@ -6574,7 +6568,7 @@
         <v>25</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>403</v>
+        <v>333</v>
       </c>
       <c r="C399" t="s">
         <v>18</v>
@@ -6585,7 +6579,7 @@
         <v>25</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>462</v>
+        <v>246</v>
       </c>
       <c r="C400" t="s">
         <v>18</v>
@@ -6596,7 +6590,7 @@
         <v>25</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>437</v>
+        <v>334</v>
       </c>
       <c r="C401" t="s">
         <v>18</v>
@@ -6607,10 +6601,10 @@
         <v>25</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="C402" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6618,10 +6612,10 @@
         <v>25</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="C403" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6629,7 +6623,7 @@
         <v>25</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="C404" t="s">
         <v>18</v>
@@ -6640,7 +6634,7 @@
         <v>25</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>162</v>
+        <v>401</v>
       </c>
       <c r="C405" t="s">
         <v>18</v>
@@ -6651,10 +6645,10 @@
         <v>25</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>594</v>
+        <v>71</v>
       </c>
       <c r="C406" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6662,10 +6656,10 @@
         <v>25</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>594</v>
+        <v>402</v>
       </c>
       <c r="C407" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6673,7 +6667,7 @@
         <v>25</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="C408" t="s">
         <v>18</v>
@@ -6684,10 +6678,10 @@
         <v>25</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>515</v>
+        <v>436</v>
       </c>
       <c r="C409" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6695,10 +6689,10 @@
         <v>25</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>426</v>
+        <v>352</v>
       </c>
       <c r="C410" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6706,7 +6700,7 @@
         <v>25</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>526</v>
+        <v>162</v>
       </c>
       <c r="C411" t="s">
         <v>18</v>
@@ -6717,10 +6711,10 @@
         <v>25</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>68</v>
+        <v>432</v>
       </c>
       <c r="C412" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6728,7 +6722,7 @@
         <v>25</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>404</v>
+        <v>525</v>
       </c>
       <c r="C413" t="s">
         <v>18</v>
@@ -6739,7 +6733,7 @@
         <v>25</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>463</v>
+        <v>403</v>
       </c>
       <c r="C414" t="s">
         <v>18</v>
@@ -6750,7 +6744,7 @@
         <v>25</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>50</v>
+        <v>462</v>
       </c>
       <c r="C415" t="s">
         <v>18</v>
@@ -6761,7 +6755,7 @@
         <v>25</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>383</v>
+        <v>50</v>
       </c>
       <c r="C416" t="s">
         <v>18</v>
@@ -6772,10 +6766,10 @@
         <v>25</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>69</v>
+        <v>382</v>
       </c>
       <c r="C417" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6805,7 +6799,7 @@
         <v>8</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C420" t="s">
         <v>2</v>
@@ -6838,7 +6832,7 @@
         <v>8</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C423" t="s">
         <v>2</v>
@@ -6852,7 +6846,7 @@
         <v>502</v>
       </c>
       <c r="C424" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6860,7 +6854,7 @@
         <v>8</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C425" t="s">
         <v>2</v>
@@ -6871,10 +6865,10 @@
         <v>8</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>495</v>
+        <v>547</v>
       </c>
       <c r="C426" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6882,7 +6876,7 @@
         <v>8</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>496</v>
+        <v>109</v>
       </c>
       <c r="C427" t="s">
         <v>2</v>
@@ -6893,7 +6887,7 @@
         <v>8</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>548</v>
+        <v>110</v>
       </c>
       <c r="C428" t="s">
         <v>2</v>
@@ -6904,7 +6898,7 @@
         <v>8</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>109</v>
+        <v>293</v>
       </c>
       <c r="C429" t="s">
         <v>2</v>
@@ -6915,10 +6909,10 @@
         <v>8</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>497</v>
+        <v>294</v>
       </c>
       <c r="C430" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6926,7 +6920,7 @@
         <v>8</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>110</v>
+        <v>253</v>
       </c>
       <c r="C431" t="s">
         <v>2</v>
@@ -6937,10 +6931,10 @@
         <v>8</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="C432" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -6948,7 +6942,7 @@
         <v>8</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="C433" t="s">
         <v>2</v>
@@ -6959,7 +6953,7 @@
         <v>8</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="C434" t="s">
         <v>2</v>
@@ -6970,7 +6964,7 @@
         <v>8</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>253</v>
+        <v>340</v>
       </c>
       <c r="C435" t="s">
         <v>2</v>
@@ -6981,7 +6975,7 @@
         <v>8</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>254</v>
+        <v>341</v>
       </c>
       <c r="C436" t="s">
         <v>2</v>
@@ -6992,7 +6986,7 @@
         <v>8</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="C437" t="s">
         <v>2</v>
@@ -7003,7 +6997,7 @@
         <v>8</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>255</v>
+        <v>353</v>
       </c>
       <c r="C438" t="s">
         <v>2</v>
@@ -7014,10 +7008,10 @@
         <v>8</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C439" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7025,7 +7019,7 @@
         <v>8</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>341</v>
+        <v>163</v>
       </c>
       <c r="C440" t="s">
         <v>2</v>
@@ -7036,7 +7030,7 @@
         <v>8</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>342</v>
+        <v>111</v>
       </c>
       <c r="C441" t="s">
         <v>2</v>
@@ -7047,7 +7041,7 @@
         <v>8</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>296</v>
+        <v>427</v>
       </c>
       <c r="C442" t="s">
         <v>2</v>
@@ -7058,7 +7052,7 @@
         <v>8</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>354</v>
+        <v>257</v>
       </c>
       <c r="C443" t="s">
         <v>2</v>
@@ -7069,7 +7063,7 @@
         <v>8</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>256</v>
+        <v>463</v>
       </c>
       <c r="C444" t="s">
         <v>2</v>
@@ -7080,7 +7074,7 @@
         <v>8</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>163</v>
+        <v>342</v>
       </c>
       <c r="C445" t="s">
         <v>2</v>
@@ -7091,7 +7085,7 @@
         <v>8</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>111</v>
+        <v>296</v>
       </c>
       <c r="C446" t="s">
         <v>2</v>
@@ -7102,10 +7096,10 @@
         <v>8</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>111</v>
+        <v>258</v>
       </c>
       <c r="C447" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7113,10 +7107,10 @@
         <v>8</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>498</v>
+        <v>297</v>
       </c>
       <c r="C448" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7124,7 +7118,7 @@
         <v>8</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>428</v>
+        <v>354</v>
       </c>
       <c r="C449" t="s">
         <v>2</v>
@@ -7135,10 +7129,10 @@
         <v>8</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>428</v>
+        <v>343</v>
       </c>
       <c r="C450" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7146,7 +7140,7 @@
         <v>8</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>257</v>
+        <v>344</v>
       </c>
       <c r="C451" t="s">
         <v>2</v>
@@ -7157,10 +7151,10 @@
         <v>8</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>257</v>
+        <v>112</v>
       </c>
       <c r="C452" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7168,10 +7162,10 @@
         <v>8</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>464</v>
+        <v>113</v>
       </c>
       <c r="C453" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7179,7 +7173,7 @@
         <v>8</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>464</v>
+        <v>164</v>
       </c>
       <c r="C454" t="s">
         <v>2</v>
@@ -7190,7 +7184,7 @@
         <v>8</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>343</v>
+        <v>165</v>
       </c>
       <c r="C455" t="s">
         <v>2</v>
@@ -7201,7 +7195,7 @@
         <v>8</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>297</v>
+        <v>166</v>
       </c>
       <c r="C456" t="s">
         <v>2</v>
@@ -7212,7 +7206,7 @@
         <v>8</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="C457" t="s">
         <v>2</v>
@@ -7223,7 +7217,7 @@
         <v>8</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="C458" t="s">
         <v>2</v>
@@ -7234,7 +7228,7 @@
         <v>8</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>355</v>
+        <v>527</v>
       </c>
       <c r="C459" t="s">
         <v>2</v>
@@ -7245,7 +7239,7 @@
         <v>8</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>344</v>
+        <v>168</v>
       </c>
       <c r="C460" t="s">
         <v>2</v>
@@ -7256,7 +7250,7 @@
         <v>8</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="C461" t="s">
         <v>2</v>
@@ -7267,7 +7261,7 @@
         <v>8</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>112</v>
+        <v>451</v>
       </c>
       <c r="C462" t="s">
         <v>2</v>
@@ -7278,7 +7272,7 @@
         <v>8</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="C463" t="s">
         <v>2</v>
@@ -7289,10 +7283,10 @@
         <v>8</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>164</v>
+        <v>501</v>
       </c>
       <c r="C464" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7300,10 +7294,10 @@
         <v>8</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>165</v>
+        <v>494</v>
       </c>
       <c r="C465" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7311,10 +7305,10 @@
         <v>8</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>166</v>
+        <v>496</v>
       </c>
       <c r="C466" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7322,10 +7316,10 @@
         <v>8</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>167</v>
+        <v>497</v>
       </c>
       <c r="C467" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7333,10 +7327,10 @@
         <v>8</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>259</v>
+        <v>526</v>
       </c>
       <c r="C468" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7344,7 +7338,7 @@
         <v>8</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="C469" t="s">
         <v>21</v>
@@ -7355,10 +7349,10 @@
         <v>8</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="C470" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7366,10 +7360,10 @@
         <v>8</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="C471" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7377,10 +7371,10 @@
         <v>8</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C472" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7388,10 +7382,10 @@
         <v>8</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>452</v>
+        <v>111</v>
       </c>
       <c r="C473" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7399,7 +7393,7 @@
         <v>8</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="C474" t="s">
         <v>18</v>
@@ -7410,10 +7404,10 @@
         <v>8</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>549</v>
+        <v>257</v>
       </c>
       <c r="C475" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7421,10 +7415,10 @@
         <v>8</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="C476" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7432,7 +7426,7 @@
         <v>8</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>169</v>
+        <v>451</v>
       </c>
       <c r="C477" t="s">
         <v>18</v>
@@ -7443,10 +7437,10 @@
         <v>8</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>550</v>
+        <v>169</v>
       </c>
       <c r="C478" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7476,10 +7470,10 @@
         <v>1</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>174</v>
+        <v>446</v>
       </c>
       <c r="C481" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7487,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="C482" t="s">
         <v>2</v>
@@ -7498,10 +7492,10 @@
         <v>1</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>447</v>
+        <v>76</v>
       </c>
       <c r="C483" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7509,10 +7503,10 @@
         <v>1</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>430</v>
+        <v>77</v>
       </c>
       <c r="C484" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7520,7 +7514,7 @@
         <v>1</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>430</v>
+        <v>78</v>
       </c>
       <c r="C485" t="s">
         <v>2</v>
@@ -7531,7 +7525,7 @@
         <v>1</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="C486" t="s">
         <v>2</v>
@@ -7542,10 +7536,10 @@
         <v>1</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="C487" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7553,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="C488" t="s">
         <v>2</v>
@@ -7564,7 +7558,7 @@
         <v>1</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>78</v>
+        <v>430</v>
       </c>
       <c r="C489" t="s">
         <v>2</v>
@@ -7575,7 +7569,7 @@
         <v>1</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C490" t="s">
         <v>2</v>
@@ -7586,7 +7580,7 @@
         <v>1</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>120</v>
+        <v>447</v>
       </c>
       <c r="C491" t="s">
         <v>2</v>
@@ -7597,10 +7591,10 @@
         <v>1</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C492" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7608,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="C493" t="s">
         <v>2</v>
@@ -7619,10 +7613,10 @@
         <v>1</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>220</v>
+        <v>124</v>
       </c>
       <c r="C494" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7630,7 +7624,7 @@
         <v>1</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>431</v>
+        <v>175</v>
       </c>
       <c r="C495" t="s">
         <v>2</v>
@@ -7641,10 +7635,10 @@
         <v>1</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="C496" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7652,7 +7646,7 @@
         <v>1</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>121</v>
+        <v>437</v>
       </c>
       <c r="C497" t="s">
         <v>2</v>
@@ -7663,10 +7657,10 @@
         <v>1</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>121</v>
+        <v>275</v>
       </c>
       <c r="C498" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7674,7 +7668,7 @@
         <v>1</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="C499" t="s">
         <v>2</v>
@@ -7685,10 +7679,10 @@
         <v>1</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>448</v>
+        <v>221</v>
       </c>
       <c r="C500" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7696,7 +7690,7 @@
         <v>1</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="C501" t="s">
         <v>2</v>
@@ -7707,7 +7701,7 @@
         <v>1</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>123</v>
+        <v>498</v>
       </c>
       <c r="C502" t="s">
         <v>2</v>
@@ -7718,7 +7712,7 @@
         <v>1</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="C503" t="s">
         <v>2</v>
@@ -7729,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C504" t="s">
         <v>2</v>
@@ -7740,7 +7734,7 @@
         <v>1</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>79</v>
+        <v>592</v>
       </c>
       <c r="C505" t="s">
         <v>2</v>
@@ -7751,10 +7745,10 @@
         <v>1</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C506" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7762,10 +7756,10 @@
         <v>1</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>438</v>
+        <v>174</v>
       </c>
       <c r="C507" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="508" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7773,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C508" t="s">
         <v>21</v>
@@ -7784,7 +7778,7 @@
         <v>1</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>276</v>
+        <v>429</v>
       </c>
       <c r="C509" t="s">
         <v>21</v>
@@ -7795,10 +7789,10 @@
         <v>1</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="C510" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7806,10 +7800,10 @@
         <v>1</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>434</v>
+        <v>120</v>
       </c>
       <c r="C511" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7817,7 +7811,7 @@
         <v>1</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>434</v>
+        <v>220</v>
       </c>
       <c r="C512" t="s">
         <v>21</v>
@@ -7828,10 +7822,10 @@
         <v>1</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>221</v>
+        <v>430</v>
       </c>
       <c r="C513" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="514" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7839,7 +7833,7 @@
         <v>1</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="C514" t="s">
         <v>21</v>
@@ -7850,10 +7844,10 @@
         <v>1</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>176</v>
+        <v>447</v>
       </c>
       <c r="C515" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="516" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7861,10 +7855,10 @@
         <v>1</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="C516" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="517" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7872,7 +7866,7 @@
         <v>1</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>499</v>
+        <v>437</v>
       </c>
       <c r="C517" t="s">
         <v>21</v>
@@ -7883,10 +7877,10 @@
         <v>1</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>177</v>
+        <v>275</v>
       </c>
       <c r="C518" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7894,7 +7888,7 @@
         <v>1</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="C519" t="s">
         <v>21</v>
@@ -7905,10 +7899,10 @@
         <v>1</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="C520" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="521" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7916,10 +7910,10 @@
         <v>1</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="C521" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="522" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7927,7 +7921,7 @@
         <v>1</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>593</v>
+        <v>448</v>
       </c>
       <c r="C522" t="s">
         <v>21</v>
@@ -7938,10 +7932,10 @@
         <v>1</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>125</v>
+        <v>592</v>
       </c>
       <c r="C523" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -7949,7 +7943,7 @@
         <v>51</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C524" t="s">
         <v>21</v>
@@ -7960,7 +7954,7 @@
         <v>51</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C525" t="s">
         <v>21</v>
@@ -7993,10 +7987,10 @@
         <v>54</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C528" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8004,7 +7998,7 @@
         <v>54</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="C529" t="s">
         <v>2</v>
@@ -8015,7 +8009,7 @@
         <v>54</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C530" t="s">
         <v>21</v>
@@ -8026,10 +8020,10 @@
         <v>54</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="C531" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="532" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8051,7 +8045,7 @@
         <v>551</v>
       </c>
       <c r="C533" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8059,7 +8053,7 @@
         <v>64</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C534" t="s">
         <v>2</v>
@@ -8069,22 +8063,22 @@
       <c r="A535" t="s">
         <v>64</v>
       </c>
-      <c r="B535" s="2" t="s">
-        <v>273</v>
+      <c r="B535" s="1" t="s">
+        <v>555</v>
       </c>
       <c r="C535" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>64</v>
       </c>
-      <c r="B536" s="2" t="s">
-        <v>273</v>
+      <c r="B536" s="1" t="s">
+        <v>550</v>
       </c>
       <c r="C536" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="537" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8092,7 +8086,7 @@
         <v>64</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C537" t="s">
         <v>21</v>
@@ -8103,7 +8097,7 @@
         <v>64</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C538" t="s">
         <v>21</v>
@@ -8111,10 +8105,10 @@
     </row>
     <row r="539" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>555</v>
+        <v>114</v>
       </c>
       <c r="C539" t="s">
         <v>2</v>
@@ -8122,10 +8116,10 @@
     </row>
     <row r="540" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>556</v>
+        <v>263</v>
       </c>
       <c r="C540" t="s">
         <v>2</v>
@@ -8136,7 +8130,7 @@
         <v>9</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C541" t="s">
         <v>2</v>
@@ -8147,10 +8141,10 @@
         <v>9</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="C542" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8158,10 +8152,10 @@
         <v>9</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>263</v>
+        <v>114</v>
       </c>
       <c r="C543" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8169,10 +8163,10 @@
         <v>9</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="C544" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="545" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8180,10 +8174,10 @@
         <v>9</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="C545" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="546" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8191,10 +8185,10 @@
         <v>9</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="C546" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="547" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8202,18 +8196,18 @@
         <v>9</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>115</v>
+        <v>298</v>
       </c>
       <c r="C547" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="548" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>264</v>
+        <v>66</v>
       </c>
       <c r="C548" t="s">
         <v>2</v>
@@ -8221,10 +8215,10 @@
     </row>
     <row r="549" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>264</v>
+        <v>66</v>
       </c>
       <c r="C549" t="s">
         <v>21</v>
@@ -8232,7 +8226,7 @@
     </row>
     <row r="550" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>66</v>
@@ -8243,7 +8237,7 @@
     </row>
     <row r="551" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B551" s="1" t="s">
         <v>66</v>
@@ -8254,10 +8248,10 @@
     </row>
     <row r="552" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="C552" t="s">
         <v>2</v>
@@ -8265,54 +8259,54 @@
     </row>
     <row r="553" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>66</v>
+        <v>323</v>
       </c>
       <c r="C553" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="554" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>171</v>
+        <v>324</v>
       </c>
       <c r="C554" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="555" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>324</v>
+        <v>47</v>
       </c>
       <c r="C555" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>325</v>
+        <v>47</v>
       </c>
       <c r="C556" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="557" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>47</v>
+        <v>265</v>
       </c>
       <c r="C557" t="s">
         <v>2</v>
@@ -8320,13 +8314,13 @@
     </row>
     <row r="558" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>47</v>
+        <v>266</v>
       </c>
       <c r="C558" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8334,7 +8328,7 @@
         <v>36</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C559" t="s">
         <v>2</v>
@@ -8342,10 +8336,10 @@
     </row>
     <row r="560" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>266</v>
+        <v>126</v>
       </c>
       <c r="C560" t="s">
         <v>2</v>
@@ -8353,21 +8347,21 @@
     </row>
     <row r="561" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>267</v>
+        <v>126</v>
       </c>
       <c r="C561" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>126</v>
+        <v>464</v>
       </c>
       <c r="C562" t="s">
         <v>2</v>
@@ -8375,13 +8369,13 @@
     </row>
     <row r="563" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>126</v>
+        <v>529</v>
       </c>
       <c r="C563" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8389,7 +8383,7 @@
         <v>10</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>465</v>
+        <v>404</v>
       </c>
       <c r="C564" t="s">
         <v>2</v>
@@ -8400,7 +8394,7 @@
         <v>10</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>530</v>
+        <v>345</v>
       </c>
       <c r="C565" t="s">
         <v>2</v>
@@ -8411,7 +8405,7 @@
         <v>10</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="C566" t="s">
         <v>2</v>
@@ -8422,7 +8416,7 @@
         <v>10</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="C567" t="s">
         <v>2</v>
@@ -8433,7 +8427,7 @@
         <v>10</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>356</v>
+        <v>485</v>
       </c>
       <c r="C568" t="s">
         <v>2</v>
@@ -8444,7 +8438,7 @@
         <v>10</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>371</v>
+        <v>556</v>
       </c>
       <c r="C569" t="s">
         <v>2</v>
@@ -8454,8 +8448,8 @@
       <c r="A570" t="s">
         <v>10</v>
       </c>
-      <c r="B570" s="2" t="s">
-        <v>273</v>
+      <c r="B570" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="C570" t="s">
         <v>2</v>
@@ -8465,8 +8459,8 @@
       <c r="A571" t="s">
         <v>10</v>
       </c>
-      <c r="B571" s="2" t="s">
-        <v>273</v>
+      <c r="B571" s="1" t="s">
+        <v>530</v>
       </c>
       <c r="C571" t="s">
         <v>2</v>
@@ -8476,11 +8470,11 @@
       <c r="A572" t="s">
         <v>10</v>
       </c>
-      <c r="B572" s="2" t="s">
-        <v>273</v>
+      <c r="B572" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="C572" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8488,7 +8482,7 @@
         <v>10</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>486</v>
+        <v>559</v>
       </c>
       <c r="C573" t="s">
         <v>2</v>
@@ -8499,7 +8493,7 @@
         <v>10</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="C574" t="s">
         <v>2</v>
@@ -8510,10 +8504,10 @@
         <v>10</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>558</v>
+        <v>346</v>
       </c>
       <c r="C575" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8521,7 +8515,7 @@
         <v>10</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>466</v>
+        <v>356</v>
       </c>
       <c r="C576" t="s">
         <v>2</v>
@@ -8532,10 +8526,10 @@
         <v>10</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>559</v>
+        <v>371</v>
       </c>
       <c r="C577" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8543,7 +8537,7 @@
         <v>10</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="C578" t="s">
         <v>2</v>
@@ -8554,7 +8548,7 @@
         <v>10</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>406</v>
+        <v>532</v>
       </c>
       <c r="C579" t="s">
         <v>2</v>
@@ -8565,7 +8559,7 @@
         <v>10</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>560</v>
+        <v>347</v>
       </c>
       <c r="C580" t="s">
         <v>2</v>
@@ -8576,10 +8570,10 @@
         <v>10</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>561</v>
+        <v>357</v>
       </c>
       <c r="C581" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8587,7 +8581,7 @@
         <v>10</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>532</v>
+        <v>372</v>
       </c>
       <c r="C582" t="s">
         <v>2</v>
@@ -8598,7 +8592,7 @@
         <v>10</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>347</v>
+        <v>563</v>
       </c>
       <c r="C583" t="s">
         <v>2</v>
@@ -8609,7 +8603,7 @@
         <v>10</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>357</v>
+        <v>533</v>
       </c>
       <c r="C584" t="s">
         <v>2</v>
@@ -8620,7 +8614,7 @@
         <v>10</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="C585" t="s">
         <v>2</v>
@@ -8631,7 +8625,7 @@
         <v>10</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>562</v>
+        <v>358</v>
       </c>
       <c r="C586" t="s">
         <v>2</v>
@@ -8642,10 +8636,10 @@
         <v>10</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>563</v>
+        <v>373</v>
       </c>
       <c r="C587" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8653,7 +8647,7 @@
         <v>10</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C588" t="s">
         <v>2</v>
@@ -8664,7 +8658,7 @@
         <v>10</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>348</v>
+        <v>565</v>
       </c>
       <c r="C589" t="s">
         <v>2</v>
@@ -8675,7 +8669,7 @@
         <v>10</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>358</v>
+        <v>428</v>
       </c>
       <c r="C590" t="s">
         <v>2</v>
@@ -8686,7 +8680,7 @@
         <v>10</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>373</v>
+        <v>535</v>
       </c>
       <c r="C591" t="s">
         <v>2</v>
@@ -8697,7 +8691,7 @@
         <v>10</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C592" t="s">
         <v>2</v>
@@ -8708,10 +8702,10 @@
         <v>10</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>564</v>
+        <v>486</v>
       </c>
       <c r="C593" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8719,7 +8713,7 @@
         <v>10</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>534</v>
+        <v>466</v>
       </c>
       <c r="C594" t="s">
         <v>2</v>
@@ -8730,7 +8724,7 @@
         <v>10</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>349</v>
+        <v>536</v>
       </c>
       <c r="C595" t="s">
         <v>2</v>
@@ -8741,7 +8735,7 @@
         <v>10</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>359</v>
+        <v>567</v>
       </c>
       <c r="C596" t="s">
         <v>2</v>
@@ -8752,7 +8746,7 @@
         <v>10</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>374</v>
+        <v>537</v>
       </c>
       <c r="C597" t="s">
         <v>2</v>
@@ -8763,10 +8757,10 @@
         <v>10</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>565</v>
+        <v>212</v>
       </c>
       <c r="C598" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8774,7 +8768,7 @@
         <v>10</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>535</v>
+        <v>116</v>
       </c>
       <c r="C599" t="s">
         <v>2</v>
@@ -8785,7 +8779,7 @@
         <v>10</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>566</v>
+        <v>117</v>
       </c>
       <c r="C600" t="s">
         <v>2</v>
@@ -8796,10 +8790,10 @@
         <v>10</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>429</v>
+        <v>557</v>
       </c>
       <c r="C601" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="602" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8807,10 +8801,10 @@
         <v>10</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
       <c r="C602" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="603" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8818,10 +8812,10 @@
         <v>10</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="C603" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="604" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8829,10 +8823,10 @@
         <v>10</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>487</v>
+        <v>562</v>
       </c>
       <c r="C604" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="605" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8840,10 +8834,10 @@
         <v>10</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>467</v>
+        <v>563</v>
       </c>
       <c r="C605" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="606" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8851,18 +8845,18 @@
         <v>10</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>537</v>
+        <v>564</v>
       </c>
       <c r="C606" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="607" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>568</v>
+        <v>213</v>
       </c>
       <c r="C607" t="s">
         <v>2</v>
@@ -8870,10 +8864,10 @@
     </row>
     <row r="608" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="C608" t="s">
         <v>2</v>
@@ -8881,10 +8875,10 @@
     </row>
     <row r="609" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>212</v>
+        <v>406</v>
       </c>
       <c r="C609" t="s">
         <v>2</v>
@@ -8892,10 +8886,10 @@
     </row>
     <row r="610" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>116</v>
+        <v>268</v>
       </c>
       <c r="C610" t="s">
         <v>2</v>
@@ -8903,10 +8897,10 @@
     </row>
     <row r="611" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>117</v>
+        <v>582</v>
       </c>
       <c r="C611" t="s">
         <v>2</v>
@@ -8917,7 +8911,7 @@
         <v>31</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>213</v>
+        <v>359</v>
       </c>
       <c r="C612" t="s">
         <v>2</v>
@@ -8928,10 +8922,10 @@
         <v>31</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>582</v>
+        <v>299</v>
       </c>
       <c r="C613" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8939,7 +8933,7 @@
         <v>31</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="C614" t="s">
         <v>2</v>
@@ -8950,7 +8944,7 @@
         <v>31</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>407</v>
+        <v>214</v>
       </c>
       <c r="C615" t="s">
         <v>2</v>
@@ -8961,7 +8955,7 @@
         <v>31</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>268</v>
+        <v>467</v>
       </c>
       <c r="C616" t="s">
         <v>2</v>
@@ -8972,7 +8966,7 @@
         <v>31</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="C617" t="s">
         <v>2</v>
@@ -8983,7 +8977,7 @@
         <v>31</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="C618" t="s">
         <v>2</v>
@@ -8994,7 +8988,7 @@
         <v>31</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="C619" t="s">
         <v>2</v>
@@ -9005,7 +8999,7 @@
         <v>31</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>504</v>
+        <v>569</v>
       </c>
       <c r="C620" t="s">
         <v>2</v>
@@ -9016,7 +9010,7 @@
         <v>31</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="C621" t="s">
         <v>2</v>
@@ -9027,7 +9021,7 @@
         <v>31</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>468</v>
+        <v>584</v>
       </c>
       <c r="C622" t="s">
         <v>2</v>
@@ -9038,7 +9032,7 @@
         <v>31</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>569</v>
+        <v>360</v>
       </c>
       <c r="C623" t="s">
         <v>2</v>
@@ -9049,10 +9043,10 @@
         <v>31</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>584</v>
+        <v>216</v>
       </c>
       <c r="C624" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9060,7 +9054,7 @@
         <v>31</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>408</v>
+        <v>468</v>
       </c>
       <c r="C625" t="s">
         <v>2</v>
@@ -9071,7 +9065,7 @@
         <v>31</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>215</v>
+        <v>408</v>
       </c>
       <c r="C626" t="s">
         <v>2</v>
@@ -9093,7 +9087,7 @@
         <v>31</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>269</v>
+        <v>586</v>
       </c>
       <c r="C628" t="s">
         <v>2</v>
@@ -9104,7 +9098,7 @@
         <v>31</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>585</v>
+        <v>300</v>
       </c>
       <c r="C629" t="s">
         <v>2</v>
@@ -9115,10 +9109,10 @@
         <v>31</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>586</v>
+        <v>270</v>
       </c>
       <c r="C630" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9137,7 +9131,7 @@
         <v>31</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C632" t="s">
         <v>2</v>
@@ -9181,7 +9175,7 @@
         <v>31</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>587</v>
+        <v>442</v>
       </c>
       <c r="C636" t="s">
         <v>2</v>
@@ -9192,7 +9186,7 @@
         <v>31</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>301</v>
+        <v>218</v>
       </c>
       <c r="C637" t="s">
         <v>2</v>
@@ -9203,7 +9197,7 @@
         <v>31</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>270</v>
+        <v>362</v>
       </c>
       <c r="C638" t="s">
         <v>2</v>
@@ -9214,7 +9208,7 @@
         <v>31</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>362</v>
+        <v>588</v>
       </c>
       <c r="C639" t="s">
         <v>2</v>
@@ -9225,7 +9219,7 @@
         <v>31</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="C640" t="s">
         <v>2</v>
@@ -9236,7 +9230,7 @@
         <v>31</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="C641" t="s">
         <v>2</v>
@@ -9247,7 +9241,7 @@
         <v>31</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>410</v>
+        <v>301</v>
       </c>
       <c r="C642" t="s">
         <v>2</v>
@@ -9258,7 +9252,7 @@
         <v>31</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>572</v>
+        <v>470</v>
       </c>
       <c r="C643" t="s">
         <v>2</v>
@@ -9269,7 +9263,7 @@
         <v>31</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>443</v>
+        <v>572</v>
       </c>
       <c r="C644" t="s">
         <v>2</v>
@@ -9280,10 +9274,10 @@
         <v>31</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>588</v>
+        <v>443</v>
       </c>
       <c r="C645" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9291,7 +9285,7 @@
         <v>31</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>218</v>
+        <v>363</v>
       </c>
       <c r="C646" t="s">
         <v>2</v>
@@ -9302,7 +9296,7 @@
         <v>31</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="C647" t="s">
         <v>2</v>
@@ -9313,7 +9307,7 @@
         <v>31</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>589</v>
+        <v>471</v>
       </c>
       <c r="C648" t="s">
         <v>2</v>
@@ -9324,7 +9318,7 @@
         <v>31</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>271</v>
+        <v>589</v>
       </c>
       <c r="C649" t="s">
         <v>2</v>
@@ -9335,7 +9329,7 @@
         <v>31</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>411</v>
+        <v>349</v>
       </c>
       <c r="C650" t="s">
         <v>2</v>
@@ -9346,7 +9340,7 @@
         <v>31</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>302</v>
+        <v>573</v>
       </c>
       <c r="C651" t="s">
         <v>2</v>
@@ -9357,7 +9351,7 @@
         <v>31</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="C652" t="s">
         <v>2</v>
@@ -9368,7 +9362,7 @@
         <v>31</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>573</v>
+        <v>364</v>
       </c>
       <c r="C653" t="s">
         <v>2</v>
@@ -9379,7 +9373,7 @@
         <v>31</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="C654" t="s">
         <v>2</v>
@@ -9390,7 +9384,7 @@
         <v>31</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>364</v>
+        <v>590</v>
       </c>
       <c r="C655" t="s">
         <v>2</v>
@@ -9401,7 +9395,7 @@
         <v>31</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>412</v>
+        <v>574</v>
       </c>
       <c r="C656" t="s">
         <v>2</v>
@@ -9412,7 +9406,7 @@
         <v>31</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="C657" t="s">
         <v>2</v>
@@ -9423,7 +9417,7 @@
         <v>31</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>590</v>
+        <v>473</v>
       </c>
       <c r="C658" t="s">
         <v>2</v>
@@ -9434,7 +9428,7 @@
         <v>31</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>350</v>
+        <v>591</v>
       </c>
       <c r="C659" t="s">
         <v>2</v>
@@ -9445,7 +9439,7 @@
         <v>31</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C660" t="s">
         <v>2</v>
@@ -9456,10 +9450,10 @@
         <v>31</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>445</v>
+        <v>581</v>
       </c>
       <c r="C661" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="662" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9467,10 +9461,10 @@
         <v>31</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>365</v>
+        <v>583</v>
       </c>
       <c r="C662" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="663" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9478,10 +9472,10 @@
         <v>31</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>473</v>
+        <v>585</v>
       </c>
       <c r="C663" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="664" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -9489,18 +9483,18 @@
         <v>31</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C664" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="665" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>575</v>
+        <v>449</v>
       </c>
       <c r="C665" t="s">
         <v>2</v>
@@ -9508,10 +9502,10 @@
     </row>
     <row r="666" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="C666" t="s">
         <v>2</v>
@@ -9519,10 +9513,10 @@
     </row>
     <row r="667" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>474</v>
+        <v>582</v>
       </c>
       <c r="C667" t="s">
         <v>2</v>
@@ -9530,10 +9524,10 @@
     </row>
     <row r="668" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>592</v>
+        <v>359</v>
       </c>
       <c r="C668" t="s">
         <v>2</v>
@@ -9541,10 +9535,10 @@
     </row>
     <row r="669" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>576</v>
+        <v>365</v>
       </c>
       <c r="C669" t="s">
         <v>2</v>
@@ -9555,7 +9549,7 @@
         <v>11</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>450</v>
+        <v>299</v>
       </c>
       <c r="C670" t="s">
         <v>2</v>
@@ -9566,7 +9560,7 @@
         <v>11</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>407</v>
+        <v>272</v>
       </c>
       <c r="C671" t="s">
         <v>2</v>
@@ -9577,7 +9571,7 @@
         <v>11</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>583</v>
+        <v>503</v>
       </c>
       <c r="C672" t="s">
         <v>2</v>
@@ -9588,7 +9582,7 @@
         <v>11</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>360</v>
+        <v>467</v>
       </c>
       <c r="C673" t="s">
         <v>2</v>
@@ -9599,7 +9593,7 @@
         <v>11</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>366</v>
+        <v>568</v>
       </c>
       <c r="C674" t="s">
         <v>2</v>
@@ -9610,7 +9604,7 @@
         <v>11</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>300</v>
+        <v>407</v>
       </c>
       <c r="C675" t="s">
         <v>2</v>
@@ -9621,7 +9615,7 @@
         <v>11</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>272</v>
+        <v>569</v>
       </c>
       <c r="C676" t="s">
         <v>2</v>
@@ -9631,8 +9625,8 @@
       <c r="A677" t="s">
         <v>11</v>
       </c>
-      <c r="B677" s="2" t="s">
-        <v>273</v>
+      <c r="B677" s="1" t="s">
+        <v>584</v>
       </c>
       <c r="C677" t="s">
         <v>2</v>
@@ -9642,8 +9636,8 @@
       <c r="A678" t="s">
         <v>11</v>
       </c>
-      <c r="B678" s="2" t="s">
-        <v>273</v>
+      <c r="B678" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="C678" t="s">
         <v>2</v>
@@ -9654,7 +9648,7 @@
         <v>11</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>504</v>
+        <v>412</v>
       </c>
       <c r="C679" t="s">
         <v>2</v>
@@ -9676,7 +9670,7 @@
         <v>11</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>569</v>
+        <v>408</v>
       </c>
       <c r="C681" t="s">
         <v>2</v>
@@ -9687,7 +9681,7 @@
         <v>11</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="C682" t="s">
         <v>2</v>
@@ -9698,7 +9692,7 @@
         <v>11</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>570</v>
+        <v>366</v>
       </c>
       <c r="C683" t="s">
         <v>2</v>
@@ -9709,7 +9703,7 @@
         <v>11</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="C684" t="s">
         <v>2</v>
@@ -9720,7 +9714,7 @@
         <v>11</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>361</v>
+        <v>586</v>
       </c>
       <c r="C685" t="s">
         <v>2</v>
@@ -9731,7 +9725,7 @@
         <v>11</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>413</v>
+        <v>300</v>
       </c>
       <c r="C686" t="s">
         <v>2</v>
@@ -9742,7 +9736,7 @@
         <v>11</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>469</v>
+        <v>361</v>
       </c>
       <c r="C687" t="s">
         <v>2</v>
@@ -9753,7 +9747,7 @@
         <v>11</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C688" t="s">
         <v>2</v>
@@ -9764,7 +9758,7 @@
         <v>11</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C689" t="s">
         <v>2</v>
@@ -9775,7 +9769,7 @@
         <v>11</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>367</v>
+        <v>469</v>
       </c>
       <c r="C690" t="s">
         <v>2</v>
@@ -9797,7 +9791,7 @@
         <v>11</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>587</v>
+        <v>442</v>
       </c>
       <c r="C692" t="s">
         <v>2</v>
@@ -9808,7 +9802,7 @@
         <v>11</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>301</v>
+        <v>362</v>
       </c>
       <c r="C693" t="s">
         <v>2</v>
@@ -9819,7 +9813,7 @@
         <v>11</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>362</v>
+        <v>588</v>
       </c>
       <c r="C694" t="s">
         <v>2</v>
@@ -9830,7 +9824,7 @@
         <v>11</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>414</v>
+        <v>271</v>
       </c>
       <c r="C695" t="s">
         <v>2</v>
@@ -9841,7 +9835,7 @@
         <v>11</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="C696" t="s">
         <v>2</v>
@@ -9852,7 +9846,7 @@
         <v>11</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>470</v>
+        <v>301</v>
       </c>
       <c r="C697" t="s">
         <v>2</v>
@@ -9863,7 +9857,7 @@
         <v>11</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>572</v>
+        <v>470</v>
       </c>
       <c r="C698" t="s">
         <v>2</v>
@@ -9874,7 +9868,7 @@
         <v>11</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>443</v>
+        <v>572</v>
       </c>
       <c r="C699" t="s">
         <v>2</v>
@@ -9885,7 +9879,7 @@
         <v>11</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>363</v>
+        <v>443</v>
       </c>
       <c r="C700" t="s">
         <v>2</v>
@@ -9896,7 +9890,7 @@
         <v>11</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>589</v>
+        <v>363</v>
       </c>
       <c r="C701" t="s">
         <v>2</v>
@@ -9907,7 +9901,7 @@
         <v>11</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>271</v>
+        <v>411</v>
       </c>
       <c r="C702" t="s">
         <v>2</v>
@@ -9918,7 +9912,7 @@
         <v>11</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>411</v>
+        <v>273</v>
       </c>
       <c r="C703" t="s">
         <v>2</v>
@@ -9929,7 +9923,7 @@
         <v>11</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>302</v>
+        <v>471</v>
       </c>
       <c r="C704" t="s">
         <v>2</v>
@@ -9940,7 +9934,7 @@
         <v>11</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>471</v>
+        <v>589</v>
       </c>
       <c r="C705" t="s">
         <v>2</v>
@@ -9951,7 +9945,7 @@
         <v>11</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>573</v>
+        <v>302</v>
       </c>
       <c r="C706" t="s">
         <v>2</v>
@@ -9962,7 +9956,7 @@
         <v>11</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>444</v>
+        <v>350</v>
       </c>
       <c r="C707" t="s">
         <v>2</v>
@@ -9973,7 +9967,7 @@
         <v>11</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>364</v>
+        <v>573</v>
       </c>
       <c r="C708" t="s">
         <v>2</v>
@@ -9984,7 +9978,7 @@
         <v>11</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>412</v>
+        <v>444</v>
       </c>
       <c r="C709" t="s">
         <v>2</v>
@@ -9995,7 +9989,7 @@
         <v>11</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>274</v>
+        <v>364</v>
       </c>
       <c r="C710" t="s">
         <v>2</v>
@@ -10028,7 +10022,7 @@
         <v>11</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>303</v>
+        <v>574</v>
       </c>
       <c r="C713" t="s">
         <v>2</v>
@@ -10039,7 +10033,7 @@
         <v>11</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>351</v>
+        <v>445</v>
       </c>
       <c r="C714" t="s">
         <v>2</v>
@@ -10050,7 +10044,7 @@
         <v>11</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>574</v>
+        <v>473</v>
       </c>
       <c r="C715" t="s">
         <v>2</v>
@@ -10061,7 +10055,7 @@
         <v>11</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>445</v>
+        <v>591</v>
       </c>
       <c r="C716" t="s">
         <v>2</v>
@@ -10072,7 +10066,7 @@
         <v>11</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>365</v>
+        <v>575</v>
       </c>
       <c r="C717" t="s">
         <v>2</v>
@@ -10083,839 +10077,762 @@
         <v>11</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>473</v>
+        <v>118</v>
       </c>
       <c r="C718" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="719" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A719" t="s">
-        <v>11</v>
-      </c>
-      <c r="B719" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="C719" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="720" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A720" t="s">
-        <v>11</v>
-      </c>
-      <c r="B720" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C720" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="721" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A721" t="s">
-        <v>11</v>
-      </c>
-      <c r="B721" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C721" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="722" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A722" t="s">
-        <v>11</v>
-      </c>
-      <c r="B722" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C722" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="723" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A723" t="s">
-        <v>11</v>
-      </c>
-      <c r="B723" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C723" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="724" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A724" t="s">
-        <v>11</v>
-      </c>
-      <c r="B724" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C724" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="725" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A725" t="s">
-        <v>11</v>
-      </c>
-      <c r="B725" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C725" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B726" s="3"/>
-    </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B727" s="3"/>
-    </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B728" s="3"/>
-    </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B729" s="3"/>
-    </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B730" s="3"/>
-    </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B731" s="3"/>
-    </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B732" s="3"/>
-    </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B733" s="3"/>
-    </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B734" s="3"/>
-    </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B735" s="3"/>
-    </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B736" s="3"/>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B719" s="2"/>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B720" s="2"/>
+    </row>
+    <row r="721" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B721" s="2"/>
+    </row>
+    <row r="722" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B722" s="2"/>
+    </row>
+    <row r="723" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B723" s="2"/>
+    </row>
+    <row r="724" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B724" s="2"/>
+    </row>
+    <row r="725" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B725" s="2"/>
+    </row>
+    <row r="726" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B726" s="2"/>
+    </row>
+    <row r="727" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B727" s="2"/>
+    </row>
+    <row r="728" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B728" s="2"/>
+    </row>
+    <row r="729" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B729" s="2"/>
+    </row>
+    <row r="730" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B730" s="2"/>
+    </row>
+    <row r="731" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B731" s="2"/>
+    </row>
+    <row r="732" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B732" s="2"/>
+    </row>
+    <row r="733" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B733" s="2"/>
+    </row>
+    <row r="734" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B734" s="2"/>
+    </row>
+    <row r="735" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B735" s="2"/>
+    </row>
+    <row r="736" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B736" s="2"/>
     </row>
     <row r="737" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B737" s="3"/>
+      <c r="B737" s="2"/>
     </row>
     <row r="738" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B738" s="3"/>
+      <c r="B738" s="2"/>
     </row>
     <row r="739" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B739" s="3"/>
+      <c r="B739" s="2"/>
     </row>
     <row r="740" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B740" s="3"/>
+      <c r="B740" s="2"/>
     </row>
     <row r="741" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B741" s="3"/>
+      <c r="B741" s="2"/>
     </row>
     <row r="742" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B742" s="3"/>
+      <c r="B742" s="2"/>
     </row>
     <row r="743" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B743" s="3"/>
+      <c r="B743" s="2"/>
     </row>
     <row r="744" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B744" s="3"/>
+      <c r="B744" s="2"/>
     </row>
     <row r="745" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B745" s="3"/>
+      <c r="B745" s="2"/>
     </row>
     <row r="746" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B746" s="3"/>
+      <c r="B746" s="2"/>
     </row>
     <row r="747" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B747" s="3"/>
+      <c r="B747" s="2"/>
     </row>
     <row r="748" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B748" s="3"/>
+      <c r="B748" s="2"/>
     </row>
     <row r="749" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B749" s="3"/>
+      <c r="B749" s="2"/>
     </row>
     <row r="750" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B750" s="3"/>
+      <c r="B750" s="2"/>
     </row>
     <row r="751" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B751" s="3"/>
+      <c r="B751" s="2"/>
     </row>
     <row r="752" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B752" s="3"/>
+      <c r="B752" s="2"/>
     </row>
     <row r="753" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B753" s="3"/>
+      <c r="B753" s="2"/>
     </row>
     <row r="754" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B754" s="3"/>
+      <c r="B754" s="2"/>
     </row>
     <row r="755" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B755" s="3"/>
+      <c r="B755" s="2"/>
     </row>
     <row r="756" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B756" s="3"/>
+      <c r="B756" s="2"/>
     </row>
     <row r="757" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B757" s="3"/>
+      <c r="B757" s="2"/>
     </row>
     <row r="758" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B758" s="3"/>
+      <c r="B758" s="2"/>
     </row>
     <row r="759" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B759" s="3"/>
+      <c r="B759" s="2"/>
     </row>
     <row r="760" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B760" s="3"/>
+      <c r="B760" s="2"/>
     </row>
     <row r="761" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B761" s="3"/>
+      <c r="B761" s="2"/>
     </row>
     <row r="762" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B762" s="3"/>
+      <c r="B762" s="2"/>
     </row>
     <row r="763" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B763" s="3"/>
+      <c r="B763" s="2"/>
     </row>
     <row r="764" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B764" s="3"/>
+      <c r="B764" s="2"/>
     </row>
     <row r="765" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B765" s="3"/>
+      <c r="B765" s="2"/>
     </row>
     <row r="766" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B766" s="3"/>
+      <c r="B766" s="2"/>
     </row>
     <row r="767" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B767" s="3"/>
+      <c r="B767" s="2"/>
     </row>
     <row r="768" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B768" s="3"/>
+      <c r="B768" s="2"/>
     </row>
     <row r="769" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B769" s="3"/>
+      <c r="B769" s="2"/>
     </row>
     <row r="770" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B770" s="3"/>
+      <c r="B770" s="2"/>
     </row>
     <row r="771" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B771" s="3"/>
+      <c r="B771" s="2"/>
     </row>
     <row r="772" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B772" s="3"/>
+      <c r="B772" s="2"/>
     </row>
     <row r="773" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B773" s="3"/>
+      <c r="B773" s="2"/>
     </row>
     <row r="774" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B774" s="3"/>
+      <c r="B774" s="2"/>
     </row>
     <row r="775" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B775" s="3"/>
+      <c r="B775" s="2"/>
     </row>
     <row r="776" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B776" s="3"/>
+      <c r="B776" s="2"/>
     </row>
     <row r="777" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B777" s="3"/>
+      <c r="B777" s="2"/>
     </row>
     <row r="778" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B778" s="3"/>
+      <c r="B778" s="2"/>
     </row>
     <row r="779" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B779" s="3"/>
+      <c r="B779" s="2"/>
     </row>
     <row r="780" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B780" s="3"/>
+      <c r="B780" s="2"/>
     </row>
     <row r="781" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B781" s="3"/>
+      <c r="B781" s="2"/>
     </row>
     <row r="782" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B782" s="3"/>
+      <c r="B782" s="2"/>
     </row>
     <row r="783" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B783" s="3"/>
+      <c r="B783" s="2"/>
     </row>
     <row r="784" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B784" s="3"/>
+      <c r="B784" s="2"/>
     </row>
     <row r="785" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B785" s="3"/>
+      <c r="B785" s="2"/>
     </row>
     <row r="786" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B786" s="3"/>
+      <c r="B786" s="2"/>
     </row>
     <row r="787" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B787" s="3"/>
+      <c r="B787" s="2"/>
     </row>
     <row r="788" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B788" s="3"/>
+      <c r="B788" s="2"/>
     </row>
     <row r="789" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B789" s="3"/>
+      <c r="B789" s="2"/>
     </row>
     <row r="790" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B790" s="3"/>
+      <c r="B790" s="2"/>
     </row>
     <row r="791" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B791" s="3"/>
+      <c r="B791" s="2"/>
     </row>
     <row r="792" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B792" s="3"/>
+      <c r="B792" s="2"/>
     </row>
     <row r="793" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B793" s="3"/>
+      <c r="B793" s="2"/>
     </row>
     <row r="794" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B794" s="3"/>
+      <c r="B794" s="2"/>
     </row>
     <row r="795" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B795" s="3"/>
+      <c r="B795" s="2"/>
     </row>
     <row r="796" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B796" s="3"/>
+      <c r="B796" s="2"/>
     </row>
     <row r="797" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B797" s="3"/>
+      <c r="B797" s="2"/>
     </row>
     <row r="798" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B798" s="3"/>
+      <c r="B798" s="2"/>
     </row>
     <row r="799" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B799" s="3"/>
+      <c r="B799" s="2"/>
     </row>
     <row r="800" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B800" s="3"/>
+      <c r="B800" s="2"/>
     </row>
     <row r="801" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B801" s="3"/>
+      <c r="B801" s="2"/>
     </row>
     <row r="802" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B802" s="3"/>
+      <c r="B802" s="2"/>
     </row>
     <row r="803" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B803" s="3"/>
+      <c r="B803" s="2"/>
     </row>
     <row r="804" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B804" s="3"/>
+      <c r="B804" s="2"/>
     </row>
     <row r="805" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B805" s="3"/>
+      <c r="B805" s="2"/>
     </row>
     <row r="806" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B806" s="3"/>
+      <c r="B806" s="2"/>
     </row>
     <row r="807" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B807" s="3"/>
+      <c r="B807" s="2"/>
     </row>
     <row r="808" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B808" s="3"/>
+      <c r="B808" s="2"/>
     </row>
     <row r="809" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B809" s="3"/>
+      <c r="B809" s="2"/>
     </row>
     <row r="810" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B810" s="3"/>
+      <c r="B810" s="2"/>
     </row>
     <row r="811" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B811" s="3"/>
+      <c r="B811" s="2"/>
     </row>
     <row r="812" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B812" s="3"/>
+      <c r="B812" s="2"/>
     </row>
     <row r="813" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B813" s="3"/>
+      <c r="B813" s="2"/>
     </row>
     <row r="814" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B814" s="3"/>
+      <c r="B814" s="2"/>
     </row>
     <row r="815" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B815" s="3"/>
+      <c r="B815" s="2"/>
     </row>
     <row r="816" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B816" s="3"/>
+      <c r="B816" s="2"/>
     </row>
     <row r="817" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B817" s="3"/>
+      <c r="B817" s="2"/>
     </row>
     <row r="818" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B818" s="3"/>
+      <c r="B818" s="2"/>
     </row>
     <row r="819" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B819" s="3"/>
+      <c r="B819" s="2"/>
     </row>
     <row r="820" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B820" s="3"/>
+      <c r="B820" s="2"/>
     </row>
     <row r="821" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B821" s="3"/>
+      <c r="B821" s="2"/>
     </row>
     <row r="822" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B822" s="3"/>
+      <c r="B822" s="2"/>
     </row>
     <row r="823" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B823" s="3"/>
+      <c r="B823" s="2"/>
     </row>
     <row r="824" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B824" s="3"/>
+      <c r="B824" s="2"/>
     </row>
     <row r="825" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B825" s="3"/>
+      <c r="B825" s="2"/>
     </row>
     <row r="826" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B826" s="3"/>
+      <c r="B826" s="2"/>
     </row>
     <row r="827" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B827" s="3"/>
+      <c r="B827" s="2"/>
     </row>
     <row r="828" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B828" s="3"/>
+      <c r="B828" s="2"/>
     </row>
     <row r="829" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B829" s="3"/>
+      <c r="B829" s="2"/>
     </row>
     <row r="830" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B830" s="3"/>
+      <c r="B830" s="2"/>
     </row>
     <row r="831" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B831" s="3"/>
+      <c r="B831" s="2"/>
     </row>
     <row r="832" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B832" s="3"/>
+      <c r="B832" s="2"/>
     </row>
     <row r="833" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B833" s="3"/>
+      <c r="B833" s="2"/>
     </row>
     <row r="834" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B834" s="3"/>
+      <c r="B834" s="2"/>
     </row>
     <row r="835" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B835" s="3"/>
+      <c r="B835" s="2"/>
     </row>
     <row r="836" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B836" s="3"/>
+      <c r="B836" s="2"/>
     </row>
     <row r="837" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B837" s="3"/>
+      <c r="B837" s="2"/>
     </row>
     <row r="838" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B838" s="3"/>
+      <c r="B838" s="2"/>
     </row>
     <row r="839" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B839" s="3"/>
+      <c r="B839" s="2"/>
     </row>
     <row r="840" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B840" s="3"/>
+      <c r="B840" s="2"/>
     </row>
     <row r="841" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B841" s="3"/>
+      <c r="B841" s="2"/>
     </row>
     <row r="842" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B842" s="3"/>
+      <c r="B842" s="2"/>
     </row>
     <row r="843" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B843" s="3"/>
+      <c r="B843" s="2"/>
     </row>
     <row r="844" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B844" s="3"/>
+      <c r="B844" s="2"/>
     </row>
     <row r="845" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B845" s="3"/>
+      <c r="B845" s="2"/>
     </row>
     <row r="846" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B846" s="3"/>
+      <c r="B846" s="2"/>
     </row>
     <row r="847" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B847" s="3"/>
+      <c r="B847" s="2"/>
     </row>
     <row r="848" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B848" s="3"/>
+      <c r="B848" s="2"/>
     </row>
     <row r="849" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B849" s="3"/>
+      <c r="B849" s="2"/>
     </row>
     <row r="850" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B850" s="3"/>
+      <c r="B850" s="2"/>
     </row>
     <row r="851" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B851" s="3"/>
+      <c r="B851" s="2"/>
     </row>
     <row r="852" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B852" s="3"/>
+      <c r="B852" s="2"/>
     </row>
     <row r="853" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B853" s="3"/>
+      <c r="B853" s="2"/>
     </row>
     <row r="854" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B854" s="3"/>
+      <c r="B854" s="2"/>
     </row>
     <row r="855" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B855" s="3"/>
+      <c r="B855" s="2"/>
     </row>
     <row r="856" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B856" s="3"/>
+      <c r="B856" s="2"/>
     </row>
     <row r="857" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B857" s="3"/>
+      <c r="B857" s="2"/>
     </row>
     <row r="858" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B858" s="3"/>
+      <c r="B858" s="2"/>
     </row>
     <row r="859" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B859" s="3"/>
+      <c r="B859" s="2"/>
     </row>
     <row r="860" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B860" s="3"/>
+      <c r="B860" s="2"/>
     </row>
     <row r="861" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B861" s="3"/>
+      <c r="B861" s="2"/>
     </row>
     <row r="862" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B862" s="3"/>
+      <c r="B862" s="2"/>
     </row>
     <row r="863" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B863" s="3"/>
+      <c r="B863" s="2"/>
     </row>
     <row r="864" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B864" s="3"/>
+      <c r="B864" s="2"/>
     </row>
     <row r="865" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B865" s="3"/>
+      <c r="B865" s="2"/>
     </row>
     <row r="866" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B866" s="3"/>
+      <c r="B866" s="2"/>
     </row>
     <row r="867" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B867" s="3"/>
+      <c r="B867" s="2"/>
     </row>
     <row r="868" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B868" s="3"/>
+      <c r="B868" s="2"/>
     </row>
     <row r="869" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B869" s="3"/>
+      <c r="B869" s="2"/>
     </row>
     <row r="870" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B870" s="3"/>
+      <c r="B870" s="2"/>
     </row>
     <row r="871" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B871" s="3"/>
+      <c r="B871" s="2"/>
     </row>
     <row r="872" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B872" s="3"/>
+      <c r="B872" s="2"/>
     </row>
     <row r="873" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B873" s="3"/>
+      <c r="B873" s="2"/>
     </row>
     <row r="874" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B874" s="3"/>
+      <c r="B874" s="2"/>
     </row>
     <row r="875" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B875" s="3"/>
+      <c r="B875" s="2"/>
     </row>
     <row r="876" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B876" s="3"/>
+      <c r="B876" s="2"/>
     </row>
     <row r="877" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B877" s="3"/>
+      <c r="B877" s="2"/>
     </row>
     <row r="878" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B878" s="3"/>
+      <c r="B878" s="2"/>
     </row>
     <row r="879" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B879" s="3"/>
+      <c r="B879" s="2"/>
     </row>
     <row r="880" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B880" s="3"/>
+      <c r="B880" s="2"/>
     </row>
     <row r="881" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B881" s="3"/>
+      <c r="B881" s="2"/>
     </row>
     <row r="882" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B882" s="3"/>
+      <c r="B882" s="2"/>
     </row>
     <row r="883" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B883" s="3"/>
+      <c r="B883" s="2"/>
     </row>
     <row r="884" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B884" s="3"/>
+      <c r="B884" s="2"/>
     </row>
     <row r="885" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B885" s="3"/>
+      <c r="B885" s="2"/>
     </row>
     <row r="886" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B886" s="3"/>
+      <c r="B886" s="2"/>
     </row>
     <row r="887" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B887" s="3"/>
+      <c r="B887" s="2"/>
     </row>
     <row r="888" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B888" s="3"/>
+      <c r="B888" s="2"/>
     </row>
     <row r="889" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B889" s="3"/>
+      <c r="B889" s="2"/>
     </row>
     <row r="890" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B890" s="3"/>
+      <c r="B890" s="2"/>
     </row>
     <row r="891" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B891" s="3"/>
+      <c r="B891" s="2"/>
     </row>
     <row r="892" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B892" s="3"/>
+      <c r="B892" s="2"/>
     </row>
     <row r="893" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B893" s="3"/>
+      <c r="B893" s="2"/>
     </row>
     <row r="894" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B894" s="3"/>
+      <c r="B894" s="2"/>
     </row>
     <row r="895" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B895" s="3"/>
+      <c r="B895" s="2"/>
     </row>
     <row r="896" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B896" s="3"/>
+      <c r="B896" s="2"/>
     </row>
     <row r="897" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B897" s="3"/>
+      <c r="B897" s="2"/>
     </row>
     <row r="898" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B898" s="3"/>
+      <c r="B898" s="2"/>
     </row>
     <row r="899" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B899" s="3"/>
+      <c r="B899" s="2"/>
     </row>
     <row r="900" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B900" s="3"/>
+      <c r="B900" s="2"/>
     </row>
     <row r="901" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B901" s="3"/>
+      <c r="B901" s="2"/>
     </row>
     <row r="902" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B902" s="3"/>
+      <c r="B902" s="2"/>
     </row>
     <row r="903" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B903" s="3"/>
+      <c r="B903" s="2"/>
     </row>
     <row r="904" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B904" s="3"/>
+      <c r="B904" s="2"/>
     </row>
     <row r="905" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B905" s="3"/>
+      <c r="B905" s="2"/>
     </row>
     <row r="906" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B906" s="3"/>
+      <c r="B906" s="2"/>
     </row>
     <row r="907" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B907" s="3"/>
+      <c r="B907" s="2"/>
     </row>
     <row r="908" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B908" s="3"/>
+      <c r="B908" s="2"/>
     </row>
     <row r="909" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B909" s="3"/>
+      <c r="B909" s="2"/>
     </row>
     <row r="910" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B910" s="3"/>
+      <c r="B910" s="2"/>
     </row>
     <row r="911" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B911" s="3"/>
+      <c r="B911" s="2"/>
     </row>
     <row r="912" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B912" s="3"/>
+      <c r="B912" s="2"/>
     </row>
     <row r="913" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B913" s="3"/>
+      <c r="B913" s="2"/>
     </row>
     <row r="914" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B914" s="3"/>
+      <c r="B914" s="2"/>
     </row>
     <row r="915" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B915" s="3"/>
+      <c r="B915" s="2"/>
     </row>
     <row r="916" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B916" s="3"/>
+      <c r="B916" s="2"/>
     </row>
     <row r="917" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B917" s="3"/>
+      <c r="B917" s="2"/>
     </row>
     <row r="918" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B918" s="3"/>
+      <c r="B918" s="2"/>
     </row>
     <row r="919" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B919" s="3"/>
+      <c r="B919" s="2"/>
     </row>
     <row r="920" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B920" s="3"/>
+      <c r="B920" s="2"/>
     </row>
     <row r="921" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B921" s="3"/>
+      <c r="B921" s="2"/>
     </row>
     <row r="922" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B922" s="3"/>
+      <c r="B922" s="2"/>
     </row>
     <row r="923" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B923" s="3"/>
+      <c r="B923" s="2"/>
     </row>
     <row r="924" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B924" s="3"/>
+      <c r="B924" s="2"/>
     </row>
     <row r="925" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B925" s="3"/>
+      <c r="B925" s="2"/>
     </row>
     <row r="926" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B926" s="3"/>
+      <c r="B926" s="2"/>
     </row>
     <row r="927" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B927" s="3"/>
+      <c r="B927" s="2"/>
     </row>
     <row r="928" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B928" s="3"/>
+      <c r="B928" s="2"/>
     </row>
     <row r="929" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B929" s="3"/>
+      <c r="B929" s="2"/>
     </row>
     <row r="930" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B930" s="3"/>
+      <c r="B930" s="2"/>
     </row>
     <row r="931" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B931" s="3"/>
+      <c r="B931" s="2"/>
     </row>
     <row r="932" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B932" s="3"/>
+      <c r="B932" s="2"/>
     </row>
     <row r="933" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B933" s="3"/>
+      <c r="B933" s="2"/>
     </row>
     <row r="934" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B934" s="3"/>
+      <c r="B934" s="2"/>
     </row>
     <row r="935" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B935" s="3"/>
+      <c r="B935" s="2"/>
     </row>
     <row r="936" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B936" s="3"/>
+      <c r="B936" s="2"/>
     </row>
     <row r="937" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B937" s="3"/>
+      <c r="B937" s="2"/>
     </row>
     <row r="938" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B938" s="3"/>
+      <c r="B938" s="2"/>
     </row>
     <row r="939" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B939" s="3"/>
+      <c r="B939" s="2"/>
     </row>
     <row r="940" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B940" s="3"/>
+      <c r="B940" s="2"/>
     </row>
     <row r="941" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B941" s="3"/>
+      <c r="B941" s="2"/>
     </row>
     <row r="942" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B942" s="3"/>
+      <c r="B942" s="2"/>
     </row>
     <row r="943" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B943" s="3"/>
+      <c r="B943" s="2"/>
     </row>
     <row r="944" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B944" s="3"/>
+      <c r="B944" s="2"/>
     </row>
     <row r="945" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B945" s="3"/>
+      <c r="B945" s="2"/>
     </row>
     <row r="946" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B946" s="3"/>
+      <c r="B946" s="2"/>
     </row>
     <row r="947" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B947" s="3"/>
+      <c r="B947" s="2"/>
     </row>
     <row r="948" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B948" s="3"/>
+      <c r="B948" s="2"/>
     </row>
     <row r="949" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B949" s="3"/>
+      <c r="B949" s="2"/>
     </row>
     <row r="950" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B950" s="3"/>
+      <c r="B950" s="2"/>
     </row>
     <row r="951" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B951" s="3"/>
+      <c r="B951" s="2"/>
     </row>
     <row r="952" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B952" s="3"/>
+      <c r="B952" s="2"/>
     </row>
     <row r="953" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B953" s="3"/>
+      <c r="B953" s="2"/>
     </row>
     <row r="954" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B954" s="3"/>
+      <c r="B954" s="2"/>
     </row>
     <row r="955" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B955" s="3"/>
+      <c r="B955" s="2"/>
     </row>
     <row r="956" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B956" s="3"/>
+      <c r="B956" s="2"/>
     </row>
     <row r="957" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B957" s="3"/>
+      <c r="B957" s="2"/>
     </row>
     <row r="958" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B958" s="3"/>
+      <c r="B958" s="2"/>
     </row>
     <row r="959" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B959" s="3"/>
+      <c r="B959" s="2"/>
     </row>
     <row r="960" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B960" s="3"/>
+      <c r="B960" s="2"/>
     </row>
     <row r="961" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B961" s="3"/>
+      <c r="B961" s="2"/>
     </row>
     <row r="962" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B962" s="3"/>
+      <c r="B962" s="2"/>
     </row>
     <row r="963" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B963" s="3"/>
+      <c r="B963" s="2"/>
     </row>
     <row r="964" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B964" s="3"/>
+      <c r="B964" s="2"/>
     </row>
     <row r="965" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B965" s="3"/>
+      <c r="B965" s="2"/>
     </row>
     <row r="966" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B966" s="3"/>
+      <c r="B966" s="2"/>
     </row>
     <row r="967" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B967" s="3"/>
-    </row>
-    <row r="968" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B968" s="3"/>
-    </row>
-    <row r="969" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B969" s="3"/>
-    </row>
-    <row r="970" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B970" s="3"/>
-    </row>
-    <row r="971" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B971" s="3"/>
-    </row>
-    <row r="972" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B972" s="3"/>
-    </row>
-    <row r="973" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B973" s="3"/>
-    </row>
-    <row r="974" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B974" s="3"/>
+      <c r="B967" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C974">
-    <sortCondition ref="A2:A974"/>
+  <sortState ref="A2:C967">
+    <sortCondition ref="A2:A967"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
